--- a/solid/expdata/1000.xlsx
+++ b/solid/expdata/1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA6C012-A781-B04A-8B0D-FFE490F0ED67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34805381-A834-F04B-890D-DAAF4972ED49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40480" yWindow="5240" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40320" yWindow="5240" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,10 @@
     <t>stat_u(%)</t>
   </si>
   <si>
-    <t>syst_u(%)</t>
+    <t>E</t>
   </si>
   <si>
-    <t>E</t>
+    <t>syst_c(%)</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,10 +467,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
